--- a/notes20180112.xlsx
+++ b/notes20180112.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="男子佩剑决赛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="男佩半决赛2" sheetId="6" r:id="rId5"/>
     <sheet name="techniques" sheetId="2" r:id="rId6"/>
     <sheet name="Field" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="409">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rompez\retreat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,18 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parry &amp; reposte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防守反击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后退（拉开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1033,287 +1020,399 @@
     <t>13:47</t>
   </si>
   <si>
-    <t>00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:02</t>
-  </si>
-  <si>
-    <t>00:03</t>
-  </si>
-  <si>
-    <t>00:04</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>00:06</t>
-  </si>
-  <si>
-    <t>00:07</t>
-  </si>
-  <si>
-    <t>00:08</t>
-  </si>
-  <si>
-    <t>00:09</t>
-  </si>
-  <si>
-    <t>00:10</t>
-  </si>
-  <si>
-    <t>00:11</t>
-  </si>
-  <si>
-    <t>00:12</t>
-  </si>
-  <si>
-    <t>00:13</t>
-  </si>
-  <si>
-    <t>00:14</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>00:16</t>
-  </si>
-  <si>
-    <t>00:17</t>
-  </si>
-  <si>
-    <t>00:18</t>
-  </si>
-  <si>
-    <t>00:19</t>
-  </si>
-  <si>
-    <t>00:20</t>
-  </si>
-  <si>
-    <t>00:21</t>
-  </si>
-  <si>
-    <t>00:22</t>
-  </si>
-  <si>
-    <t>00:23</t>
-  </si>
-  <si>
-    <t>00:24</t>
-  </si>
-  <si>
-    <t>00:25</t>
-  </si>
-  <si>
-    <t>00:26</t>
-  </si>
-  <si>
-    <t>00:27</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>00:29</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>00:31</t>
-  </si>
-  <si>
-    <t>00:32</t>
-  </si>
-  <si>
-    <t>00:33</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
-    <t>00:35</t>
-  </si>
-  <si>
-    <t>00:36</t>
-  </si>
-  <si>
-    <t>00:37</t>
-  </si>
-  <si>
-    <t>00:38</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>00:41</t>
-  </si>
-  <si>
-    <t>00:42</t>
-  </si>
-  <si>
-    <t>00:43</t>
-  </si>
-  <si>
-    <t>00:44</t>
-  </si>
-  <si>
-    <t>00:45</t>
-  </si>
-  <si>
-    <t>00:46</t>
-  </si>
-  <si>
-    <t>00:47</t>
-  </si>
-  <si>
-    <t>00:48</t>
-  </si>
-  <si>
-    <t>00:49</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>00:51</t>
-  </si>
-  <si>
-    <t>00:52</t>
-  </si>
-  <si>
-    <t>00:53</t>
-  </si>
-  <si>
-    <t>00:54</t>
-  </si>
-  <si>
-    <t>00:55</t>
-  </si>
-  <si>
-    <t>00:56</t>
-  </si>
-  <si>
-    <t>00:57</t>
-  </si>
-  <si>
-    <t>00:58</t>
-  </si>
-  <si>
-    <t>00:59</t>
-  </si>
-  <si>
-    <t>01:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:02</t>
-  </si>
-  <si>
-    <t>01:03</t>
-  </si>
-  <si>
-    <t>01:04</t>
-  </si>
-  <si>
-    <t>01:05</t>
-  </si>
-  <si>
-    <t>01:06</t>
-  </si>
-  <si>
-    <t>01:07</t>
-  </si>
-  <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>01:09</t>
-  </si>
-  <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>01:11</t>
-  </si>
-  <si>
-    <t>01:12</t>
-  </si>
-  <si>
-    <t>01:13</t>
-  </si>
-  <si>
-    <t>01:14</t>
-  </si>
-  <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>01:16</t>
-  </si>
-  <si>
-    <t>01:17</t>
-  </si>
-  <si>
-    <t>01:18</t>
-  </si>
-  <si>
-    <t>01:19</t>
-  </si>
-  <si>
-    <t>01:20</t>
-  </si>
-  <si>
-    <t>01:21</t>
-  </si>
-  <si>
-    <t>01:22</t>
-  </si>
-  <si>
-    <t>01:23</t>
-  </si>
-  <si>
-    <t>01:24</t>
-  </si>
-  <si>
-    <t>01:25</t>
-  </si>
-  <si>
-    <t>01:26</t>
-  </si>
-  <si>
     <t>fa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ffr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ffpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>3:29</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>3:57</t>
+  </si>
+  <si>
+    <t>3:58</t>
+  </si>
+  <si>
+    <t>4:07</t>
+  </si>
+  <si>
+    <t>4:08</t>
+  </si>
+  <si>
+    <t>4:22</t>
+  </si>
+  <si>
+    <t>4:31</t>
+  </si>
+  <si>
+    <t>4:32</t>
+  </si>
+  <si>
+    <t>5:09</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>5:14</t>
+  </si>
+  <si>
+    <t>5:38</t>
+  </si>
+  <si>
+    <t>5:39</t>
+  </si>
+  <si>
+    <t>5:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:49</t>
+  </si>
+  <si>
+    <t>5:54</t>
+  </si>
+  <si>
+    <t>6:16</t>
+  </si>
+  <si>
+    <t>6:33</t>
+  </si>
+  <si>
+    <t>6:34</t>
+  </si>
+  <si>
+    <t>6:46</t>
+  </si>
+  <si>
+    <t>6:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:51</t>
+  </si>
+  <si>
+    <t>7:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:12</t>
+  </si>
+  <si>
+    <t>7:13</t>
+  </si>
+  <si>
+    <t>7:28</t>
+  </si>
+  <si>
+    <t>7:29</t>
+  </si>
+  <si>
+    <t>7:48</t>
+  </si>
+  <si>
+    <t>7:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:50</t>
+  </si>
+  <si>
+    <t>8:14</t>
+  </si>
+  <si>
+    <t>8:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:16</t>
+  </si>
+  <si>
+    <t>8:18</t>
+  </si>
+  <si>
+    <t>9:48</t>
+  </si>
+  <si>
+    <t>9:49</t>
+  </si>
+  <si>
+    <t>9:57</t>
+  </si>
+  <si>
+    <t>9:58</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>11:23</t>
+  </si>
+  <si>
+    <t>11:39</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>13:17</t>
+  </si>
+  <si>
+    <t>13:29</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>15:29</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:41</t>
+  </si>
+  <si>
+    <t>15:42</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t>17:44</t>
+  </si>
+  <si>
+    <t>17:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>18:11</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>18:37</t>
+  </si>
+  <si>
+    <t>18:38</t>
+  </si>
+  <si>
+    <t>19:01</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reposte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻反攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffha+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffhb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffa+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffhp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1398,7 +1497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1675,25 +1774,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1705,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1714,12 +1813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1731,46 +1830,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1779,85 +1878,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1866,57 +1965,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1925,29 +2024,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1956,46 +2055,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2004,91 +2103,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="F25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2097,29 +2196,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2128,29 +2227,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2159,46 +2258,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2207,37 +2306,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -2246,83 +2345,83 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
       <c r="F37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F40" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2331,54 +2430,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F43" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="F44" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2387,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2396,74 +2495,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>401</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2472,29 +2571,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2503,29 +2602,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>404</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2534,88 +2633,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2624,46 +2723,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>404</v>
       </c>
       <c r="F62" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s">
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2672,29 +2771,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2703,57 +2802,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2762,29 +2861,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
       </c>
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" t="s">
-        <v>56</v>
+      <c r="C71" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2793,85 +2892,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="F74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B75" t="s">
-        <v>66</v>
-      </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="F75">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2880,29 +2979,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s">
         <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2911,46 +3010,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="F81" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2959,57 +3058,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
         <v>65</v>
       </c>
-      <c r="F83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B84" t="s">
-        <v>66</v>
-      </c>
       <c r="C84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" t="s">
+        <v>294</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B86" t="s">
         <v>10</v>
       </c>
-      <c r="D84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B86" t="s">
-        <v>57</v>
-      </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3018,29 +3117,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3057,14 +3156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.6527777777777779E-2</v>
       </c>
@@ -3108,7 +3207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4.7222222222222221E-2</v>
       </c>
@@ -3128,7 +3227,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>6.5972222222222224E-2</v>
       </c>
@@ -3144,7 +3243,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -3160,7 +3259,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>7.2222222222222229E-2</v>
       </c>
@@ -3176,7 +3275,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -3192,7 +3291,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7.7777777777777779E-2</v>
       </c>
@@ -3208,7 +3307,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -3226,7 +3325,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8.9583333333333334E-2</v>
       </c>
@@ -3242,7 +3341,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.5833333333333326E-2</v>
       </c>
@@ -3260,7 +3359,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.10833333333333334</v>
       </c>
@@ -3276,7 +3375,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.10902777777777778</v>
       </c>
@@ -3292,7 +3391,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.11944444444444445</v>
       </c>
@@ -3308,7 +3407,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.12013888888888889</v>
       </c>
@@ -3324,7 +3423,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.12569444444444444</v>
       </c>
@@ -3340,7 +3439,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.12708333333333333</v>
       </c>
@@ -3353,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.13680555555555554</v>
       </c>
@@ -3364,7 +3463,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.13819444444444443</v>
       </c>
@@ -3377,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.14722222222222223</v>
       </c>
@@ -3388,7 +3487,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.14791666666666667</v>
       </c>
@@ -3401,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.17013888888888887</v>
       </c>
@@ -3412,7 +3511,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.17500000000000002</v>
       </c>
@@ -3425,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.18611111111111112</v>
       </c>
@@ -3436,7 +3535,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.1875</v>
       </c>
@@ -3449,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.20138888888888887</v>
       </c>
@@ -3460,7 +3559,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.20277777777777781</v>
       </c>
@@ -3473,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.21388888888888891</v>
       </c>
@@ -3484,7 +3583,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.21666666666666667</v>
       </c>
@@ -3497,7 +3596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.22569444444444445</v>
       </c>
@@ -3508,7 +3607,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.22777777777777777</v>
       </c>
@@ -3521,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.27777777777777779</v>
       </c>
@@ -3532,7 +3631,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.27986111111111112</v>
       </c>
@@ -3545,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.29444444444444445</v>
       </c>
@@ -3556,7 +3655,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.30138888888888887</v>
       </c>
@@ -3569,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.31944444444444448</v>
       </c>
@@ -3580,7 +3679,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0.32013888888888892</v>
       </c>
@@ -3591,7 +3690,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0.33124999999999999</v>
       </c>
@@ -3602,7 +3701,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0.33611111111111108</v>
       </c>
@@ -3615,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0.3576388888888889</v>
       </c>
@@ -3626,7 +3725,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.35972222222222222</v>
       </c>
@@ -3639,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0.375</v>
       </c>
@@ -3650,7 +3749,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0.37638888888888888</v>
       </c>
@@ -3663,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.39097222222222222</v>
       </c>
@@ -3674,7 +3773,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0.39166666666666666</v>
       </c>
@@ -3685,7 +3784,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0.39999999999999997</v>
       </c>
@@ -3696,7 +3795,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.4055555555555555</v>
       </c>
@@ -3709,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0.42569444444444443</v>
       </c>
@@ -3720,7 +3819,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0.43055555555555558</v>
       </c>
@@ -3733,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0.45624999999999999</v>
       </c>
@@ -3744,7 +3843,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0.45694444444444443</v>
       </c>
@@ -3755,7 +3854,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0.46249999999999997</v>
       </c>
@@ -3766,7 +3865,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0.46388888888888885</v>
       </c>
@@ -3779,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0.47291666666666665</v>
       </c>
@@ -3790,7 +3889,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0.47361111111111115</v>
       </c>
@@ -3803,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0.49652777777777773</v>
       </c>
@@ -3814,7 +3913,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>0.4993055555555555</v>
       </c>
@@ -3835,20 +3934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -3874,12 +3973,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -3891,9 +3990,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3911,20 +4010,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -3939,9 +4038,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -3959,20 +4058,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -3990,20 +4089,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -4018,9 +4117,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4038,14 +4137,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4054,14 +4153,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -4070,14 +4169,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4086,27 +4185,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -4115,27 +4214,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -4144,14 +4243,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -4160,14 +4259,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -4176,14 +4275,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -4192,14 +4291,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -4208,14 +4307,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -4224,14 +4323,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -4240,14 +4339,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -4256,14 +4355,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -4272,9 +4371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4285,22 +4384,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -4317,7 +4416,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4328,15 +4427,15 @@
         <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4356,29 +4455,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4394,12 +4493,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4415,18 +4514,18 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -4440,12 +4539,12 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4461,18 +4560,18 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -4492,12 +4591,12 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4513,18 +4612,18 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -4544,12 +4643,12 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4565,18 +4664,18 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -4596,12 +4695,12 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4617,18 +4716,18 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
@@ -4642,12 +4741,12 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4663,18 +4762,18 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4694,12 +4793,12 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4715,15 +4814,15 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>57</v>
@@ -4742,12 +4841,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4759,18 +4858,18 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -4786,12 +4885,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4803,18 +4902,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
@@ -4824,12 +4923,12 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4841,35 +4940,35 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -4885,12 +4984,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4902,18 +5001,18 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -4929,12 +5028,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4946,15 +5045,15 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>56</v>
@@ -4963,18 +5062,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -4990,12 +5089,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5007,35 +5106,35 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -5051,12 +5150,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5068,18 +5167,18 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -5095,12 +5194,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5112,18 +5211,18 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
@@ -5133,12 +5232,12 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5150,18 +5249,18 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -5176,12 +5275,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5193,35 +5292,35 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -5237,12 +5336,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5254,18 +5353,18 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -5281,12 +5380,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5298,18 +5397,18 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -5325,12 +5424,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5342,18 +5441,18 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -5369,12 +5468,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5386,35 +5485,35 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F50" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -5430,12 +5529,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5447,18 +5546,18 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3">
@@ -5468,12 +5567,12 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5485,18 +5584,18 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -5512,12 +5611,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5529,18 +5628,18 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3">
@@ -5550,12 +5649,12 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5567,9 +5666,9 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>56</v>
@@ -5594,12 +5693,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5611,18 +5710,18 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3">
@@ -5632,12 +5731,12 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5649,9 +5748,9 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -5670,12 +5769,12 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5687,9 +5786,9 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>10</v>
@@ -5704,9 +5803,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>56</v>
@@ -5731,15 +5830,15 @@
         <v>9</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5751,9 +5850,9 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>56</v>
@@ -5762,7 +5861,7 @@
         <v>56</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -5778,12 +5877,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5795,18 +5894,18 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -5822,12 +5921,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5839,9 +5938,9 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>11</v>
@@ -5860,12 +5959,12 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5877,18 +5976,18 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -5904,12 +6003,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5921,15 +6020,15 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>56</v>
@@ -5948,12 +6047,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5965,9 +6064,9 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>11</v>
@@ -5986,12 +6085,12 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -6003,9 +6102,9 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>56</v>
@@ -6038,21 +6137,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="7" max="8" width="9" style="3"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -6069,190 +6168,190 @@
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -6261,215 +6360,215 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -6478,29 +6577,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -6509,77 +6608,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -6588,77 +6687,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6667,29 +6766,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -6698,60 +6797,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -6760,175 +6859,175 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>90</v>
       </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>90</v>
       </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B55" t="s">
         <v>148</v>
       </c>
-      <c r="B53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="C55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -6937,57 +7036,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -6996,29 +7095,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -7027,192 +7126,192 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>90</v>
       </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -7221,77 +7320,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="B81" t="s">
         <v>176</v>
       </c>
-      <c r="B79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>162</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" t="s">
-        <v>179</v>
-      </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7308,25 +7407,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -7334,27 +7433,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -7362,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -7370,7 +7469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -7378,7 +7477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -7394,7 +7493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7402,12 +7501,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -7415,12 +7514,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -7428,12 +7527,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -7441,7 +7540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -7449,149 +7548,221 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D47" t="s">
         <v>68</v>
       </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A23:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A23:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5">
-        <v>7</v>
-      </c>
-      <c r="H24" s="6">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/notes20180112.xlsx
+++ b/notes20180112.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="男子佩剑决赛" sheetId="1" r:id="rId1"/>
-    <sheet name="女佩决赛" sheetId="3" r:id="rId2"/>
-    <sheet name="女佩半决赛" sheetId="4" r:id="rId3"/>
+    <sheet name="女佩决赛" sheetId="3" r:id="rId1"/>
+    <sheet name="女佩半决赛" sheetId="4" r:id="rId2"/>
+    <sheet name="男子佩剑决赛" sheetId="1" r:id="rId3"/>
     <sheet name="男佩半决赛" sheetId="5" r:id="rId4"/>
     <sheet name="男佩半决赛2" sheetId="6" r:id="rId5"/>
     <sheet name="techniques" sheetId="2" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="477">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,14 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有及时转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,18 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15:22</t>
   </si>
   <si>
@@ -551,10 +519,6 @@
     <t>24:11</t>
   </si>
   <si>
-    <t>pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24:35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,10 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26:51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0:58</t>
   </si>
   <si>
@@ -816,9 +772,6 @@
     <t>13:16</t>
   </si>
   <si>
-    <t>2:17</t>
-  </si>
-  <si>
     <t>2:18</t>
   </si>
   <si>
@@ -1407,6 +1360,256 @@
   <si>
     <t>ffhp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fapr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:22</t>
+  </si>
+  <si>
+    <t>5:23</t>
+  </si>
+  <si>
+    <t>5:32</t>
+  </si>
+  <si>
+    <t>5:47</t>
+  </si>
+  <si>
+    <t>5:48</t>
+  </si>
+  <si>
+    <t>6:06</t>
+  </si>
+  <si>
+    <t>6:07</t>
+  </si>
+  <si>
+    <t>6:40</t>
+  </si>
+  <si>
+    <t>6:41</t>
+  </si>
+  <si>
+    <t>6:52</t>
+  </si>
+  <si>
+    <t>7:08</t>
+  </si>
+  <si>
+    <t>7:09</t>
+  </si>
+  <si>
+    <t>7:10</t>
+  </si>
+  <si>
+    <t>7:26</t>
+  </si>
+  <si>
+    <t>8:08</t>
+  </si>
+  <si>
+    <t>8:09</t>
+  </si>
+  <si>
+    <t>8:30</t>
+  </si>
+  <si>
+    <t>8:31</t>
+  </si>
+  <si>
+    <t>9:04</t>
+  </si>
+  <si>
+    <t>9:05</t>
+  </si>
+  <si>
+    <t>9:16</t>
+  </si>
+  <si>
+    <t>9:17</t>
+  </si>
+  <si>
+    <t>9:28</t>
+  </si>
+  <si>
+    <t>9:29</t>
+  </si>
+  <si>
+    <t>9:51</t>
+  </si>
+  <si>
+    <t>9:52</t>
+  </si>
+  <si>
+    <t>9:53</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>11:42</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>12:23</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>12:43</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:47</t>
+  </si>
+  <si>
+    <t>14:48</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>15:27</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>16:46</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>16.52</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>18:13</t>
+  </si>
+  <si>
+    <t>18:14</t>
+  </si>
+  <si>
+    <t>18:22</t>
+  </si>
+  <si>
+    <t>18:23</t>
+  </si>
+  <si>
+    <t>18:35</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>19:57</t>
   </si>
 </sst>
 </file>
@@ -1775,1388 +1978,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D26" t="s">
-        <v>383</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" t="s">
-        <v>386</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" t="s">
-        <v>294</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>385</v>
-      </c>
-      <c r="D33" t="s">
-        <v>383</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" t="s">
-        <v>395</v>
-      </c>
-      <c r="D35" t="s">
-        <v>395</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41" t="s">
-        <v>392</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" t="s">
-        <v>400</v>
-      </c>
-      <c r="D50" t="s">
-        <v>401</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D52" t="s">
-        <v>403</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>402</v>
-      </c>
-      <c r="D54" t="s">
-        <v>404</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>402</v>
-      </c>
-      <c r="D56" t="s">
-        <v>402</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" t="s">
-        <v>294</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>384</v>
-      </c>
-      <c r="D60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s">
-        <v>406</v>
-      </c>
-      <c r="D63" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>295</v>
-      </c>
-      <c r="D65" t="s">
-        <v>294</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>384</v>
-      </c>
-      <c r="D67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>384</v>
-      </c>
-      <c r="D69" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>384</v>
-      </c>
-      <c r="D73" t="s">
-        <v>294</v>
-      </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>384</v>
-      </c>
-      <c r="D75" t="s">
-        <v>405</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" t="s">
-        <v>402</v>
-      </c>
-      <c r="D77" t="s">
-        <v>408</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="F78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" t="s">
-        <v>384</v>
-      </c>
-      <c r="D79" t="s">
-        <v>405</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" t="s">
-        <v>384</v>
-      </c>
-      <c r="D82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" t="s">
-        <v>380</v>
-      </c>
-      <c r="D84" t="s">
-        <v>294</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-      <c r="F85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>295</v>
-      </c>
-      <c r="D86" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3933,7 +2754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -3975,7 +2796,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -3992,7 +2813,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -4012,7 +2833,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -4023,7 +2844,7 @@
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -4040,7 +2861,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -4060,7 +2881,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4071,7 +2892,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4091,7 +2912,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -4102,7 +2923,7 @@
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -4119,7 +2940,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4139,12 +2960,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4155,12 +2976,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -4171,12 +2992,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4187,12 +3008,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4200,12 +3021,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -4216,12 +3037,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4229,12 +3050,12 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -4245,12 +3066,12 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -4261,12 +3082,12 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -4277,12 +3098,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -4293,12 +3114,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -4309,12 +3130,12 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -4325,12 +3146,12 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -4341,12 +3162,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -4357,12 +3178,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -4373,7 +3194,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4383,12 +3204,1394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>388</v>
+      </c>
+      <c r="D50" t="s">
+        <v>389</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" t="s">
+        <v>390</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>372</v>
+      </c>
+      <c r="D60" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>394</v>
+      </c>
+      <c r="D63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>372</v>
+      </c>
+      <c r="D67" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" t="s">
+        <v>393</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A80"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4416,7 +4619,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4427,21 +4630,21 @@
         <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4455,35 +4658,43 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4495,16 +4706,20 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4516,20 +4731,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -4541,20 +4752,30 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -4562,30 +4783,20 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4593,20 +4804,30 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -4614,30 +4835,20 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -4645,20 +4856,30 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -4666,30 +4887,20 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -4697,16 +4908,20 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4718,20 +4933,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4743,20 +4954,30 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -4764,448 +4985,438 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="F23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <v>5</v>
-      </c>
-      <c r="I30" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>5</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -5213,60 +5424,56 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+        <v>384</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="F38" s="3">
-        <v>4</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="3">
         <v>6</v>
@@ -5277,16 +5484,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -5294,39 +5501,39 @@
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="F41" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
@@ -5338,16 +5545,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -5355,22 +5562,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
@@ -5382,16 +5589,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -5399,22 +5606,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
@@ -5426,16 +5633,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -5443,22 +5650,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
@@ -5470,16 +5677,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -5487,39 +5694,39 @@
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="F50" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
       </c>
       <c r="F51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3">
@@ -5531,16 +5738,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5548,20 +5755,20 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -5569,16 +5776,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5586,22 +5793,20 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>84</v>
+        <v>398</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3">
@@ -5611,39 +5816,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
       <c r="F56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5651,16 +5855,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -5668,64 +5876,60 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="3">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3">
-        <v>9</v>
-      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
       <c r="F60" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="H60" s="3">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -5733,16 +5937,20 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -5750,20 +5958,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -5771,197 +5975,197 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F66" s="3">
-        <v>6</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <v>11</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9</v>
-      </c>
-      <c r="J66" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
       <c r="F67" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="H67" s="3">
+        <v>11</v>
+      </c>
+      <c r="I67" s="3">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="3">
-        <v>12</v>
-      </c>
-      <c r="I68" s="3">
-        <v>9</v>
-      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
       <c r="F69" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="H69" s="3">
+        <v>12</v>
+      </c>
+      <c r="I69" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3">
-        <v>13</v>
-      </c>
-      <c r="I70" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="F71" s="3">
-        <v>4</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
       <c r="F72" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="H72" s="3">
+        <v>13</v>
+      </c>
+      <c r="I72" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>64</v>
@@ -5970,7 +6174,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -5978,34 +6182,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="3">
-        <v>14</v>
-      </c>
-      <c r="I74" s="3">
-        <v>9</v>
-      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>64</v>
@@ -6014,7 +6212,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -6022,34 +6220,34 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="E76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
         <v>14</v>
       </c>
       <c r="I76" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>64</v>
@@ -6058,7 +6256,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -6066,28 +6264,34 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>372</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
       <c r="F78" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="H78" s="3">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>64</v>
@@ -6096,7 +6300,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -6104,28 +6308,66 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3">
+        <v>5</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="C82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="3">
         <v>1</v>
       </c>
-      <c r="F80" s="3">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3">
+      <c r="F82" s="3">
+        <v>5</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3">
         <v>15</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I82" s="3">
         <v>10</v>
       </c>
     </row>
@@ -6138,1264 +6380,1547 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="7" max="8" width="9" style="3"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="8" max="9" width="9" style="3"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2">
+      <c r="B10" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E26" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" t="s">
+        <v>403</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" t="s">
+        <v>372</v>
+      </c>
+      <c r="E39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
+        <v>371</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>390</v>
+      </c>
+      <c r="E42" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" t="s">
+        <v>368</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>393</v>
+      </c>
+      <c r="E62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" t="s">
+        <v>368</v>
+      </c>
+      <c r="E66" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" t="s">
+        <v>371</v>
+      </c>
+      <c r="G67">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13">
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E70" t="s">
+        <v>282</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" t="s">
+        <v>282</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" t="s">
+        <v>283</v>
+      </c>
+      <c r="F78">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15">
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>372</v>
+      </c>
+      <c r="E80" t="s">
+        <v>390</v>
+      </c>
+      <c r="F80">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19">
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
+      <c r="G83">
         <v>3</v>
       </c>
     </row>
@@ -7577,7 +8102,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -7591,7 +8116,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -7602,10 +8127,10 @@
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7613,37 +8138,37 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7678,29 +8203,29 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C49" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -7708,7 +8233,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D51" t="s">
         <v>71</v>
